--- a/Understanding Data/Metadata - Edem.xlsx
+++ b/Understanding Data/Metadata - Edem.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABEACE02EC6B639863985BDE589E" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1E46283B-2816-4FD4-A7AF-CECC63114F07}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Comprehensive Species Tally</t>
   </si>
@@ -103,12 +102,15 @@
   </si>
   <si>
     <t>Vikash, Edem, Harwinder</t>
+  </si>
+  <si>
+    <t>Git test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,30 +452,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" customWidth="1"/>
-    <col min="5" max="5" width="50.453125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -490,7 +492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -505,7 +507,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -518,7 +520,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -529,9 +531,11 @@
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -544,7 +548,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -557,7 +561,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -568,7 +572,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -583,7 +587,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
@@ -596,7 +600,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
         <v>17</v>
@@ -609,7 +613,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
         <v>19</v>

--- a/Understanding Data/Metadata - Edem.xlsx
+++ b/Understanding Data/Metadata - Edem.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Comprehensive Species Tally</t>
   </si>
@@ -104,7 +104,13 @@
     <t>Vikash, Edem, Harwinder</t>
   </si>
   <si>
-    <t>Git test</t>
+    <t>Woody plants info - A more detail explanation is provided in the Understanding data - Edem markdown document</t>
+  </si>
+  <si>
+    <t>Ground cover plants info - A more detail explanation is provided in the Understanding data - Edem markdown document</t>
+  </si>
+  <si>
+    <t>Forest management effort info -  A more detail explanation is provided in the Understanding data - Edem markdown document</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -179,6 +185,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +472,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +529,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -531,7 +540,7 @@
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -548,7 +557,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -559,7 +568,9 @@
       <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -572,7 +583,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -585,7 +596,9 @@
       <c r="D8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
